--- a/Excel_Files/Stats_Populations/2_cm/784_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2_cm/784_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002657170706721464</v>
+        <v>0.001000766009086299</v>
       </c>
       <c r="D2">
-        <v>0.0004434317859073192</v>
+        <v>0.001184641552401731</v>
       </c>
       <c r="E2">
-        <v>0.0003863183097742978</v>
+        <v>0.001087700453504086</v>
       </c>
       <c r="F2">
-        <v>0.0003902368515570364</v>
+        <v>0.001105731823322389</v>
       </c>
       <c r="G2">
-        <v>0.0002101623954055056</v>
+        <v>0.0008977776736497269</v>
       </c>
       <c r="H2">
-        <v>0.0004434317859073192</v>
+        <v>0.001184641552401731</v>
       </c>
       <c r="I2">
-        <v>0.0005505809389928156</v>
+        <v>0.001484268402872152</v>
       </c>
       <c r="J2">
-        <v>0.0006167122663422069</v>
+        <v>0.001455852712718188</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001542493788765175</v>
+        <v>0.0007553955386310717</v>
       </c>
       <c r="D3">
-        <v>0.0003830611935592398</v>
+        <v>0.00107056116134569</v>
       </c>
       <c r="E3">
-        <v>0.0002577173193015779</v>
+        <v>0.0009838412002610732</v>
       </c>
       <c r="F3">
-        <v>0.0001712427296205242</v>
+        <v>0.000800896380982229</v>
       </c>
       <c r="G3">
-        <v>0.0001599132500276975</v>
+        <v>0.0007486130744254145</v>
       </c>
       <c r="H3">
-        <v>0.000246966719875543</v>
+        <v>0.0009562280565059907</v>
       </c>
       <c r="I3">
-        <v>0.0002837119316637794</v>
+        <v>0.001007403028439599</v>
       </c>
       <c r="J3">
-        <v>0.0001675974642238439</v>
+        <v>0.0008115709292279747</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001014154805982953</v>
+        <v>0.0005977177198742965</v>
       </c>
       <c r="D4">
-        <v>0.0001886089239915496</v>
+        <v>0.0008157393829591504</v>
       </c>
       <c r="E4">
-        <v>0.0001734694414815503</v>
+        <v>0.0008042037836590046</v>
       </c>
       <c r="F4">
-        <v>7.225087055953061E-05</v>
+        <v>0.0004819923380159827</v>
       </c>
       <c r="G4">
-        <v>6.317187944299603E-05</v>
+        <v>0.0004433496704652189</v>
       </c>
       <c r="H4">
-        <v>0.0001274882558898607</v>
+        <v>0.0006786707572834573</v>
       </c>
       <c r="I4">
-        <v>0.000175948766909172</v>
+        <v>0.0008323128217225324</v>
       </c>
       <c r="J4">
-        <v>5.321500698676486E-05</v>
+        <v>0.0003959015934255706</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>6.741060885670474E-06</v>
+        <v>0.0001040184668034383</v>
       </c>
       <c r="D5">
-        <v>8.349314686132406E-06</v>
+        <v>0.0001190638483322047</v>
       </c>
       <c r="E5">
-        <v>7.77495130402437E-06</v>
+        <v>0.0001103366806026517</v>
       </c>
       <c r="F5">
-        <v>4.034632789535297E-06</v>
+        <v>7.412035362919974E-05</v>
       </c>
       <c r="G5">
-        <v>3.017076690619795E-06</v>
+        <v>6.078896871678246E-05</v>
       </c>
       <c r="H5">
-        <v>4.927219988320466E-06</v>
+        <v>8.382292653120832E-05</v>
       </c>
       <c r="I5">
-        <v>7.146546223252754E-06</v>
+        <v>0.0001034833588673495</v>
       </c>
       <c r="J5">
-        <v>4.534215801638988E-06</v>
+        <v>7.885907258151946E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.320494258923959E-06</v>
+        <v>7.761545584297092E-05</v>
       </c>
       <c r="D6">
-        <v>4.689778108556764E-06</v>
+        <v>8.245796751088742E-05</v>
       </c>
       <c r="E6">
-        <v>3.921139599773338E-06</v>
+        <v>7.306169226010591E-05</v>
       </c>
       <c r="F6">
-        <v>1.936720094226462E-06</v>
+        <v>4.600250528844793E-05</v>
       </c>
       <c r="G6">
-        <v>1.699908573847986E-06</v>
+        <v>4.239273684932157E-05</v>
       </c>
       <c r="H6">
-        <v>2.269220193335759E-06</v>
+        <v>5.053582845877151E-05</v>
       </c>
       <c r="I6">
-        <v>4.29720134329582E-06</v>
+        <v>7.585107798149031E-05</v>
       </c>
       <c r="J6">
-        <v>2.502129085689088E-06</v>
+        <v>5.162546256818065E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.114305478088839E-06</v>
+        <v>4.841619400596519E-05</v>
       </c>
       <c r="D7">
-        <v>2.454187672242998E-06</v>
+        <v>5.378394058466821E-05</v>
       </c>
       <c r="E7">
-        <v>1.042789758123528E-06</v>
+        <v>3.005207004683307E-05</v>
       </c>
       <c r="F7">
-        <v>6.367624114587707E-07</v>
+        <v>2.238785336658669E-05</v>
       </c>
       <c r="G7">
-        <v>8.498579345315411E-07</v>
+        <v>2.602383679680641E-05</v>
       </c>
       <c r="H7">
-        <v>6.367624114587707E-07</v>
+        <v>2.238785336658669E-05</v>
       </c>
       <c r="I7">
-        <v>2.186573010130084E-06</v>
+        <v>4.962562518504739E-05</v>
       </c>
       <c r="J7">
-        <v>1.688148395188457E-06</v>
+        <v>4.055908675097353E-05</v>
       </c>
     </row>
   </sheetData>
